--- a/InputFiles/ICDC/TC06_ICDC_OSA03_StageOfDisease-IIb.xlsx
+++ b/InputFiles/ICDC/TC06_ICDC_OSA03_StageOfDisease-IIb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sohilz2/Automation/poc-07-15-2024/Commons_Automation/InputFiles/ICDC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430C9420-16E8-0F43-B4E5-352359C87793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABA3C66-8067-684D-93FE-5608A7BC77EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47360" yWindow="-4940" windowWidth="42480" windowHeight="27840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="35340" yWindow="-880" windowWidth="42480" windowHeight="27840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,40 +71,9 @@
     <t>TC06_ICDC_OSA03_StageOfDisease-IIb_TSVData.xlsx</t>
   </si>
   <si>
-    <t>SELECT
-    COUNT(DISTINCT p.program_acronym) AS "Programs",
-    COUNT(DISTINCT st.clinical_study_designation) AS "Studies",
-    COUNT(DISTINCT c.case_id) AS "Cases",
-    COUNT(DISTINCT smp.sample_id) AS "Samples",
-    COUNT(DISTINCT cf.file_name) AS "Case Files",         
-    COUNT(DISTINCT sf.file_name) AS "Study Files" 
-FROM 
-    df_program p
-JOIN 
-    df_study st ON p.program_acronym = st."program.program_acronym"
-JOIN 
-    df_case c ON st.clinical_study_designation = c."study.clinical_study_designation"
-JOIN 
-    df_demographic dmg ON dmg."case.case_id" = c.case_id
-JOIN 
-    df_diagnosis diag ON diag."case.case_id" = c.case_id
-JOIN 
-    df_enrollment enr ON enr."case.case_id" = c.case_id
-JOIN 
-    df_sample smp ON smp."case.case_id" = c.case_id
-LEFT JOIN 
-    df_registration reg ON reg."case.case_id" = c.case_id
-LEFT JOIN 
-    df_case_file cf ON cf."sample.sample_id" = smp.sample_id
-LEFT JOIN 
-    df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
-WHERE 
-    st.clinical_study_designation = 'OSA03' AND diag.stage_of_disease = 'IIb';</t>
-  </si>
-  <si>
     <t>SELECT DISTINCT
     smp.sample_id AS "Sample ID",
-    c.case_id AS "Case ID",
+    c.case_record_id AS "Case ID",
     COALESCE(dmg.breed, '') AS "Breed",
     COALESCE(diag.disease_term, '') AS "Diagnosis",
     COALESCE(smp.sample_site, '') AS "Sample Site",
@@ -113,26 +82,26 @@
     COALESCE(smp.tumor_grade, '') AS "Tumor Grade",
     COALESCE(smp.sample_chronology, '') AS "Sample Chronology",
     COALESCE(smp.percentage_tumor, '') AS "Percentage Tumor",
-    COALESCE(TRIM(smp.necropsy_sample), '') AS "Necropsy Sample",
+    COALESCE(smp.necropsy_sample, '') AS "Necropsy Sample",
     COALESCE(smp.sample_preservation, '') AS "Sample Preservation"
 FROM 
     df_sample smp
 JOIN 
-    df_case c ON smp."case.case_id" = c.case_id
+    df_case c ON smp."case.case_record_id" = c.case_record_id
 JOIN 
     df_publication pub ON pub."study.clinical_study_designation" = st.clinical_study_designation
 JOIN 
-    df_demographic dmg ON dmg."case.case_id" = c.case_id
-JOIN 
-    df_diagnosis diag ON diag."case.case_id" = c.case_id
-JOIN 
-    df_enrollment enr ON enr."case.case_id" = c.case_id
+    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
+JOIN 
+    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
+JOIN 
+    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
 JOIN 
     df_program p ON st."program.program_acronym" = p.program_acronym
 JOIN 
     df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
 LEFT JOIN 
-    df_registration reg ON reg."case.case_id" = c.case_id
+    df_registration reg ON reg."case.case_record_id" = c.case_record_id
 LEFT JOIN 
     df_case_file cf ON cf."sample.sample_id" = smp.sample_id
 LEFT JOIN 
@@ -144,8 +113,8 @@
 LIMIT 100;</t>
   </si>
   <si>
-    <t>SELECT DISTINCT
-    cf.file_name AS "File Name",
+    <t>SELECT 
+    DISTINCT cf.file_name AS "File Name",
     CASE
         WHEN cf.file_name LIKE '%.bai' THEN 'bai'
         WHEN cf.file_name LIKE '%.bam' THEN 'bam'
@@ -191,7 +160,7 @@
     'sample' AS "Association",
     cf.file_description AS "Description",
     smp.sample_id AS "Sample ID",
-    c.case_id AS "Case ID",
+    c.case_record_id AS "Case ID",
     dmg.breed AS "Breed",
     diag.disease_term AS "Diagnosis"
 FROM 
@@ -199,27 +168,27 @@
 JOIN 
     df_sample smp ON cf."sample.sample_id" = smp.sample_id
 JOIN 
-    df_case c ON smp."case.case_id" = c.case_id
+    df_case c ON smp."case.case_record_id" = c.case_record_id
 JOIN 
     df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
 JOIN 
     df_program p ON st."program.program_acronym" = p.program_acronym
 JOIN 
-    df_demographic dmg ON dmg."case.case_id" = c.case_id
-JOIN 
-    df_diagnosis diag ON diag."case.case_id" = c.case_id
-JOIN 
-    df_enrollment enr ON enr."case.case_id" = c.case_id
+    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
+JOIN 
+    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
+JOIN 
+    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
 JOIN 
     df_publication pub ON pub."study.clinical_study_designation" = st.clinical_study_designation
 LEFT JOIN 
-    df_registration reg ON reg."case.case_id" = c.case_id
+    df_registration reg ON reg."case.case_record_id" = c.case_record_id
 LEFT JOIN 
     df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
 WHERE
     st.clinical_study_designation = 'OSA03' AND diag.stage_of_disease = 'IIb'
 ORDER BY 
-    sf.file_name ASC
+    cf.file_name ASC
 LIMIT 100;</t>
   </si>
   <si>
@@ -244,14 +213,14 @@
         ELSE 'Unknown'
     END AS "Format",
     CASE     
-        WHEN sf.original_file_size &gt;= 1024 * 1024 * 1024 THEN 
-            ROUND(sf.original_file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB' 
-        WHEN sf.original_file_size &gt;= 1024 * 1024 THEN 
-            ROUND(sf.original_file_size / (1024.0 * 1024.0), 2) || ' MB' 
-        WHEN sf.original_file_size &gt;= 1024 THEN 
-            ROUND(sf.original_file_size / 1024.0, 2) || ' KB' 
+        WHEN sf.file_size &gt;= 1024 * 1024 * 1024 THEN 
+            ROUND(sf.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB' 
+        WHEN sf.file_size &gt;= 1024 * 1024 THEN 
+            ROUND(sf.file_size / (1024.0 * 1024.0), 2) || ' MB' 
+        WHEN sf.file_size &gt;= 1024 THEN 
+            ROUND(sf.file_size / 1024.0, 2) || ' KB' 
         ELSE 
-            ROUND(sf.original_file_size, 2) || ' Bytes' 
+            ROUND(sf.file_size, 2) || ' Bytes' 
     END AS "Size",
     st.clinical_study_designation AS "Study Code"
 FROM 
@@ -259,21 +228,21 @@
 JOIN 
     df_sample smp ON cf."sample.sample_id" = smp.sample_id
 JOIN 
-    df_case c ON smp."case.case_id" = c.case_id
+    df_case c ON smp."case.case_record_id" = c.case_record_id
 JOIN 
     df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
 JOIN 
     df_program p ON st."program.program_acronym" = p.program_acronym
 JOIN 
-    df_demographic dmg ON dmg."case.case_id" = c.case_id
-JOIN 
-    df_diagnosis diag ON diag."case.case_id" = c.case_id
-JOIN 
-    df_enrollment enr ON enr."case.case_id" = c.case_id
+    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
+JOIN 
+    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
+JOIN 
+    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
 JOIN 
     df_publication pub ON pub."study.clinical_study_designation" = st.clinical_study_designation
 LEFT JOIN 
-    df_registration reg ON reg."case.case_id" = c.case_id
+    df_registration reg ON reg."case.case_record_id" = c.case_record_id
 LEFT JOIN 
     df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
 WHERE
@@ -284,7 +253,38 @@
   </si>
   <si>
     <t>SELECT
-    DISTINCT TRIM(c.case_id) AS "Case ID",
+    COUNT(DISTINCT p.program_acronym) AS "Programs",
+    COUNT(DISTINCT st.clinical_study_designation) AS "Studies",
+    COUNT(DISTINCT c.case_record_id) AS "Cases",
+    COUNT(DISTINCT smp.sample_id) AS "Samples",
+    COUNT(DISTINCT cf.file_name) AS "Case Files",         
+    COUNT(DISTINCT sf.file_name) AS "Study Files" 
+FROM 
+    df_program p
+JOIN 
+    df_study st ON p.program_acronym = st."program.program_acronym"
+JOIN 
+    df_case c ON st.clinical_study_designation = c."study.clinical_study_designation"
+JOIN 
+    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
+JOIN 
+    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
+JOIN 
+    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
+JOIN 
+    df_sample smp ON smp."case.case_record_id" = c.case_record_id
+LEFT JOIN 
+    df_registration reg ON reg."case.case_record_id" = c.case_record_id
+LEFT JOIN 
+    df_case_file cf ON cf."sample.sample_id" = smp.sample_id
+LEFT JOIN 
+    df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
+WHERE 
+    st.clinical_study_designation = 'OSA03' AND diag.stage_of_disease = 'IIb';</t>
+  </si>
+  <si>
+    <t>SELECT
+    DISTINCT c.case_record_id AS "Case ID",
     st.clinical_study_designation AS "Study Code",
     st.clinical_study_type AS "Study Type",
     dmg.breed AS "Breed",
@@ -299,10 +299,10 @@
     COALESCE(dmg.neutered_indicator, '') AS "Neutered Status",  
     COALESCE(
     CASE 
-        WHEN dmg.weight = CAST(dmg.weight AS INT) THEN CAST(CAST(dmg.weight AS INT) AS TEXT)
+        WHEN dmg.weight = CAST(dmg.weight AS INT) THEN TRIM(CAST(dmg.weight AS TEXT), '.0')
         ELSE CAST(ROUND(dmg.weight, 1) AS TEXT)
     END, 
-'') AS "Weight (kg)",       
+'') AS "Weight (kg)",        
     COALESCE(diag.best_response, '') AS "Response to Treatment",  
     COALESCE(coh.cohort_description, '') AS "Cohort"  
 FROM 
@@ -310,27 +310,29 @@
 JOIN 
     df_study st ON c."study.clinical_study_designation" = st.clinical_study_designation
 JOIN 
-    df_demographic dmg ON dmg."case.case_id" = c.case_id
-JOIN 
-    df_diagnosis diag ON diag."case.case_id" = c.case_id
-JOIN 
-    df_enrollment enr ON enr."case.case_id" = c.case_id
+    df_demographic dmg ON dmg."case.case_record_id" = c.case_record_id
+JOIN 
+    df_diagnosis diag ON diag."case.case_record_id" = c.case_record_id
+JOIN 
+    df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
 JOIN 
     df_program p ON st."program.program_acronym" = p.program_acronym
 JOIN 
-    df_sample smp ON smp."case.case_id" = c.case_id
+    df_sample smp ON smp."case.case_record_id" = c.case_record_id
 JOIN 
     df_publication pub ON pub."study.clinical_study_designation" = st.clinical_study_designation
 LEFT JOIN 
     df_case_file cf ON cf."sample.sample_id" = smp.sample_id
+LEFT JOIN 
+    df_registration reg ON reg."case.case_record_id" = c.case_record_id
 LEFT JOIN 
     df_study_file sf ON sf."study.clinical_study_designation" = st.clinical_study_designation
 LEFT JOIN
     df_cohort coh ON coh."study.clinical_study_designation" = st.clinical_study_designation
 WHERE
-     st.clinical_study_designation = 'OSA03' AND diag.stage_of_disease = 'IIb'
+    st.clinical_study_designation = 'OSA03' AND diag.stage_of_disease = 'IIb'
 ORDER BY 
-    c.case_id ASC
+    c.case_record_id ASC
 LIMIT 100;</t>
   </si>
 </sst>
@@ -338,16 +340,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -407,14 +402,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -744,7 +736,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -776,11 +768,11 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -794,7 +786,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -803,7 +795,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -812,7 +804,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -820,7 +812,7 @@
       <c r="C6" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
